--- a/data/validation_results.xlsx
+++ b/data/validation_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11214"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rockmtnins-my.sharepoint.com/personal/hamidreza_zoraghein_rmi_org/Documents/Development/rag_cft/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_0B51B1B9D360502193D93611595ED87656CD52DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F4100A70-21A3-D14A-B043-77CEE53D7648}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="11_0B51B1B9D360502193D93611595ED87656CD52DD" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E72DA1BD-E18D-F846-8E8A-2B8340958273}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="82">
   <si>
     <t>case_id</t>
   </si>
@@ -97,13 +97,7 @@
     <t>The actual output expresses the same meaning as the expected output. The actual output is a shortened version of the expected output, but it does not introduce any incorrect or contradictory information. Therefore, the actual output is semantically equivalent to the expected output.</t>
   </si>
   <si>
-    <t>What woul be the equivalence of a peak demand at around 40 MW?</t>
-  </si>
-  <si>
     <t>The provided context does not contain the information to answer what a 40 MW peak demand would be equivalent to.</t>
-  </si>
-  <si>
-    <t>A major industrial site</t>
   </si>
   <si>
     <t>The score is 1.00 because there were no irrelevant statements, indicating perfect alignment with the input! Great job!</t>
@@ -186,24 +180,6 @@
   </si>
   <si>
     <t>The actual output and expected output express the same meaning. The actual output adds context ('Proactive investment to future-proof sites can') and clarifies the cost reduction ('and reduce costs to drivers'), but these additions do not introduce incorrect or contradictory information. Therefore, the outputs are semantically equivalent.</t>
-  </si>
-  <si>
-    <t>What is the source of MHDV modeling in the electric highways study?</t>
-  </si>
-  <si>
-    <t>The MHDV modeling is based on a scenario that assumes 100% of new MHDV sales are battery-electric by 2045.</t>
-  </si>
-  <si>
-    <t>Geotab’s ITS Altitude platform</t>
-  </si>
-  <si>
-    <t>The score is 0.00 because the first node in the retrieval contexts "discusses LDVs and MHDV electrification planning, but it does not mention the source of MHDV modeling or Geotab’s ITS Altitude platform.", the second node in the retrieval contexts "presents a load curve variation and discusses electric highways, but it does not mention the source of MHDV modeling or Geotab’s ITS Altitude platform.", and the third node in the retrieval contexts "discusses MHDV sales scenarios, but it does not mention the source of MHDV modeling or Geotab’s ITS Altitude platform.". All of these nodes are irrelevant and should be ranked lower.</t>
-  </si>
-  <si>
-    <t>The actual output states the MHDV modeling is based on a scenario about battery-electric vehicle sales, while the expected output states the source is Geotab's ITS Altitude platform. These are contradictory, and the actual output fails to provide the expected source. Therefore, the response receives a score of 0.</t>
-  </si>
-  <si>
-    <t>The actual output discusses MHDV modeling and battery-electric vehicle sales, while the expected output refers to 'Geotab's ITS Altitude platform.' These outputs have completely different meanings and topics, indicating no semantic equivalence. Therefore, the actual output contradicts the expected output.</t>
   </si>
   <si>
     <t>Did this study acount for campetitive charging in MHDV assessment and what would be its effect?</t>
@@ -288,6 +264,12 @@
   </si>
   <si>
     <t>The actual output and expected output express the same meaning. There are no incorrect or contradictory information introduced. The outputs are semantically equivalent.</t>
+  </si>
+  <si>
+    <t>What would be the equivalence of a peak demand at around 5 MW?</t>
+  </si>
+  <si>
+    <t>A stadium</t>
   </si>
 </sst>
 </file>
@@ -651,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -662,6 +644,10 @@
     <col min="2" max="2" width="76" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="174" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="163.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="103.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="113.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="255.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
@@ -757,43 +743,43 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C3" t="s">
         <v>25</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
         <v>26</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
         <v>27</v>
       </c>
-      <c r="E3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>28</v>
       </c>
-      <c r="G3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>29</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
         <v>30</v>
       </c>
-      <c r="J3" t="s">
+      <c r="M3" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" t="s">
         <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
-        <v>30</v>
-      </c>
-      <c r="N3" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
@@ -801,43 +787,43 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>34</v>
       </c>
-      <c r="C4" t="s">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
         <v>35</v>
       </c>
-      <c r="D4" t="s">
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
         <v>37</v>
       </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N4" t="s">
         <v>38</v>
-      </c>
-      <c r="K4" t="s">
-        <v>17</v>
-      </c>
-      <c r="L4" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" t="s">
-        <v>17</v>
-      </c>
-      <c r="N4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
@@ -845,13 +831,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
         <v>41</v>
-      </c>
-      <c r="C5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D5" t="s">
-        <v>43</v>
       </c>
       <c r="E5" t="s">
         <v>17</v>
@@ -863,25 +849,25 @@
         <v>17</v>
       </c>
       <c r="H5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J5" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" t="s">
         <v>44</v>
       </c>
-      <c r="J5" t="s">
+      <c r="M5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N5" t="s">
         <v>45</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -889,157 +875,157 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" t="s">
         <v>48</v>
       </c>
-      <c r="C6" t="s">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" t="s">
         <v>49</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" t="s">
         <v>50</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="K6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L6" t="s">
         <v>51</v>
       </c>
-      <c r="G6" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" t="s">
+      <c r="M6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N6" t="s">
         <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s">
         <v>55</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="D7" t="s">
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+      <c r="I7" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="E7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" t="s">
-        <v>19</v>
-      </c>
-      <c r="I7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" t="s">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L7" t="s">
+      <c r="M7" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" t="s">
         <v>59</v>
-      </c>
-      <c r="M7" t="s">
-        <v>30</v>
-      </c>
-      <c r="N7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="C8" t="s">
+      <c r="D8" t="s">
         <v>62</v>
       </c>
-      <c r="D8" t="s">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
         <v>63</v>
       </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="K8" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>65</v>
       </c>
-      <c r="K8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" t="s">
+      <c r="M8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" t="s">
         <v>66</v>
-      </c>
-      <c r="M8" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" t="s">
         <v>68</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>69</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" t="s">
         <v>70</v>
       </c>
-      <c r="E9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" t="s">
-        <v>18</v>
-      </c>
       <c r="G9" t="s">
         <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="I9" t="s">
         <v>17</v>
@@ -1048,36 +1034,36 @@
         <v>71</v>
       </c>
       <c r="K9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L9" t="s">
         <v>72</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" t="s">
         <v>73</v>
-      </c>
-      <c r="M9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C10" t="s">
         <v>75</v>
       </c>
-      <c r="C10" t="s">
+      <c r="D10" t="s">
         <v>76</v>
       </c>
-      <c r="D10" t="s">
-        <v>77</v>
-      </c>
       <c r="E10" t="s">
         <v>17</v>
       </c>
       <c r="F10" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="G10" t="s">
         <v>17</v>
@@ -1089,63 +1075,19 @@
         <v>17</v>
       </c>
       <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
         <v>79</v>
-      </c>
-      <c r="K10" t="s">
-        <v>17</v>
-      </c>
-      <c r="L10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C11" t="s">
-        <v>83</v>
-      </c>
-      <c r="D11" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" t="s">
-        <v>19</v>
-      </c>
-      <c r="I11" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" t="s">
-        <v>85</v>
-      </c>
-      <c r="K11" t="s">
-        <v>17</v>
-      </c>
-      <c r="L11" t="s">
-        <v>86</v>
-      </c>
-      <c r="M11" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>
